--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-683116.7821048362</v>
+        <v>-690127.5112208305</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>131.0579917851408</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>150.7973859605237</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>162.1171008006705</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>149.5768016811473</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>26.55883529623347</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>118.9030747963368</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>155.1861977492547</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>101.063634833332</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>86.03149381524966</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>108.8954510456178</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>154.1884895469499</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>137.4369513589434</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>281.9924206725807</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>54.67459405740178</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0011626258184</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.6764880547859</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>27.32710805344539</v>
       </c>
       <c r="E11" t="n">
-        <v>77.86744710834169</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
@@ -1430,13 +1430,13 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>66.17533215739036</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>1.744628706342333</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.9002539350238</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1616,7 +1616,7 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>302.0978381174914</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>82.99846957177846</v>
@@ -1774,10 +1774,10 @@
         <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>77.27774961429157</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
         <v>82.84545313338901</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>107.0724915201562</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
@@ -1850,7 +1850,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2953,7 +2953,7 @@
         <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
         <v>60.01194954507305</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596574988</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973565001</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167833</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196074</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380046</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667958</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644684</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883898</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541102</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658295</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.88205970103887</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656619</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135911</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U38" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X38" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
@@ -3749,16 +3749,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793.5954997698793</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="C2" t="n">
-        <v>793.5954997698793</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="D2" t="n">
-        <v>793.5954997698793</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="E2" t="n">
-        <v>793.5954997698793</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F2" t="n">
-        <v>376.7010612998571</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>175.3530084793355</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>175.3530084793355</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L2" t="n">
-        <v>668.6733001978644</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.932085207957</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845419</v>
+        <v>1193.075989993384</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737747</v>
+        <v>1633.115590885712</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S2" t="n">
-        <v>2004.408246139289</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T2" t="n">
-        <v>1780.907643698705</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="U2" t="n">
-        <v>1525.154914133304</v>
+        <v>1819.409608251522</v>
       </c>
       <c r="V2" t="n">
-        <v>1183.048104836822</v>
+        <v>1819.409608251522</v>
       </c>
       <c r="W2" t="n">
-        <v>1183.048104836822</v>
+        <v>1819.409608251522</v>
       </c>
       <c r="X2" t="n">
-        <v>793.5954997698793</v>
+        <v>1667.089016372205</v>
       </c>
       <c r="Y2" t="n">
-        <v>793.5954997698793</v>
+        <v>1270.598307292806</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>669.0425824298294</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>518.3883519899216</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>388.2993846114019</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>251.8528937222896</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>251.8528937222896</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>131.793075794154</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475495</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>714.3825334202763</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1252.641318430369</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430369</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.16160102135</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737747</v>
+        <v>1877.147508262691</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>1940.231660716792</v>
       </c>
       <c r="T3" t="n">
-        <v>1852.180602262276</v>
+        <v>1763.2478489157</v>
       </c>
       <c r="U3" t="n">
-        <v>1642.117458940918</v>
+        <v>1553.184705594342</v>
       </c>
       <c r="V3" t="n">
-        <v>1419.577457311985</v>
+        <v>1402.097027128537</v>
       </c>
       <c r="W3" t="n">
-        <v>1189.460211445272</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="X3" t="n">
-        <v>1000.153133795284</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>820.8389168707907</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356.300145220288</v>
+        <v>236.5844070167247</v>
       </c>
       <c r="C4" t="n">
-        <v>356.300145220288</v>
+        <v>236.5844070167247</v>
       </c>
       <c r="D4" t="n">
-        <v>356.300145220288</v>
+        <v>236.5844070167247</v>
       </c>
       <c r="E4" t="n">
-        <v>356.300145220288</v>
+        <v>236.5844070167247</v>
       </c>
       <c r="F4" t="n">
-        <v>198.974210433261</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G4" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>824.8385659804117</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U4" t="n">
-        <v>824.8385659804117</v>
+        <v>421.792425708026</v>
       </c>
       <c r="V4" t="n">
-        <v>824.8385659804117</v>
+        <v>421.792425708026</v>
       </c>
       <c r="W4" t="n">
-        <v>541.5081639115892</v>
+        <v>421.792425708026</v>
       </c>
       <c r="X4" t="n">
-        <v>541.5081639115892</v>
+        <v>421.792425708026</v>
       </c>
       <c r="Y4" t="n">
-        <v>541.5081639115892</v>
+        <v>421.792425708026</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1186.771001266949</v>
+        <v>953.5887659539654</v>
       </c>
       <c r="C5" t="n">
-        <v>793.5954997698793</v>
+        <v>851.5042863243372</v>
       </c>
       <c r="D5" t="n">
-        <v>793.5954997698793</v>
+        <v>466.0631575410049</v>
       </c>
       <c r="E5" t="n">
-        <v>793.5954997698793</v>
+        <v>63.47963265754941</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402611</v>
+        <v>50.62559822793123</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>673.8990329354866</v>
+        <v>773.3325661833842</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354866</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572949</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465277</v>
+        <v>1726.974845685401</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.27650096432</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.27650096432</v>
+        <v>1685.14818031739</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.523771398919</v>
+        <v>1685.14818031739</v>
       </c>
       <c r="V5" t="n">
-        <v>1714.523771398919</v>
+        <v>1343.041371020909</v>
       </c>
       <c r="W5" t="n">
-        <v>1343.524736367206</v>
+        <v>1343.041371020909</v>
       </c>
       <c r="X5" t="n">
-        <v>1343.524736367206</v>
+        <v>953.5887659539654</v>
       </c>
       <c r="Y5" t="n">
-        <v>1343.524736367206</v>
+        <v>953.5887659539654</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722.8018246066504</v>
+        <v>715.0405061833847</v>
       </c>
       <c r="C6" t="n">
-        <v>572.1475941667426</v>
+        <v>564.3862757434769</v>
       </c>
       <c r="D6" t="n">
-        <v>442.0586267882229</v>
+        <v>434.2973083649572</v>
       </c>
       <c r="E6" t="n">
-        <v>305.6121358991106</v>
+        <v>297.8508174758449</v>
       </c>
       <c r="F6" t="n">
-        <v>181.1803297822424</v>
+        <v>297.8508174758449</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>177.7909995477094</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475495</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475495</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L6" t="n">
-        <v>527.0617452930682</v>
+        <v>638.1843148743791</v>
       </c>
       <c r="M6" t="n">
-        <v>1065.32053030316</v>
+        <v>1151.786993484067</v>
       </c>
       <c r="N6" t="n">
-        <v>1603.579315313253</v>
+        <v>1151.786993484067</v>
       </c>
       <c r="O6" t="n">
-        <v>2120.099597904234</v>
+        <v>1665.389672093756</v>
       </c>
       <c r="P6" t="n">
-        <v>2120.099597904234</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635812</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535681</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T6" t="n">
-        <v>1905.939844439097</v>
+        <v>1898.178526015831</v>
       </c>
       <c r="U6" t="n">
-        <v>1695.876701117739</v>
+        <v>1688.115382694473</v>
       </c>
       <c r="V6" t="n">
-        <v>1473.336699488806</v>
+        <v>1465.57538106554</v>
       </c>
       <c r="W6" t="n">
-        <v>1243.219453622093</v>
+        <v>1235.458135198827</v>
       </c>
       <c r="X6" t="n">
-        <v>1053.912375972104</v>
+        <v>1046.151057548839</v>
       </c>
       <c r="Y6" t="n">
-        <v>874.5981590476117</v>
+        <v>866.836840624346</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>522.7870764746129</v>
+        <v>553.1239980435508</v>
       </c>
       <c r="C7" t="n">
-        <v>522.7870764746129</v>
+        <v>382.9188801095401</v>
       </c>
       <c r="D7" t="n">
-        <v>522.7870764746129</v>
+        <v>382.9188801095401</v>
       </c>
       <c r="E7" t="n">
-        <v>367.2282643338154</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2282643338154</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475495</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475495</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>806.1174785434353</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>806.1174785434353</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>806.1174785434353</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>806.1174785434353</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>522.7870764746129</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>522.7870764746129</v>
+        <v>708.869947080874</v>
       </c>
       <c r="Y7" t="n">
-        <v>522.7870764746129</v>
+        <v>708.869947080874</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1553.929615385886</v>
+        <v>1371.298257135899</v>
       </c>
       <c r="C8" t="n">
-        <v>1160.754113888817</v>
+        <v>978.1227556388292</v>
       </c>
       <c r="D8" t="n">
-        <v>875.9132849266141</v>
+        <v>978.1227556388292</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431586</v>
+        <v>978.1227556388292</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1943.38222045283</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V8" t="n">
-        <v>1943.38222045283</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W8" t="n">
-        <v>1943.38222045283</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="X8" t="n">
-        <v>1553.929615385886</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="Y8" t="n">
-        <v>1553.929615385886</v>
+        <v>1371.298257135899</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154367</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.5726287726191</v>
+        <v>530.402834963379</v>
       </c>
       <c r="C10" t="n">
-        <v>497.5726287726191</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="D10" t="n">
-        <v>497.5726287726191</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="E10" t="n">
-        <v>342.0138166318216</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F10" t="n">
-        <v>184.6878818447945</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>813.7332370322013</v>
       </c>
       <c r="V10" t="n">
-        <v>682.7806474639203</v>
+        <v>813.7332370322013</v>
       </c>
       <c r="W10" t="n">
-        <v>682.7806474639203</v>
+        <v>530.402834963379</v>
       </c>
       <c r="X10" t="n">
-        <v>682.7806474639203</v>
+        <v>530.402834963379</v>
       </c>
       <c r="Y10" t="n">
-        <v>682.7806474639203</v>
+        <v>530.402834963379</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1459.710229057665</v>
+        <v>1680.640162217124</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.710229057665</v>
+        <v>1359.260935866248</v>
       </c>
       <c r="D11" t="n">
-        <v>1146.065375420527</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2651.689396636281</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543618</v>
+        <v>2651.689396636281</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2334.033066715532</v>
       </c>
       <c r="Y11" t="n">
-        <v>1788.408699622868</v>
+        <v>2009.338632782327</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1345.668748541356</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1862.189031132337</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>470.6573289598045</v>
+        <v>510.029651303028</v>
       </c>
       <c r="C13" t="n">
-        <v>372.2484861719877</v>
+        <v>411.6208085152111</v>
       </c>
       <c r="D13" t="n">
-        <v>305.4047163160376</v>
+        <v>327.7839705639197</v>
       </c>
       <c r="E13" t="n">
-        <v>305.4047163160376</v>
+        <v>244.0214335693161</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752044</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,10 +5200,10 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.71283314325</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T13" t="n">
-        <v>1365.71283314325</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U13" t="n">
-        <v>1152.070316531345</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V13" t="n">
-        <v>957.8872464983634</v>
+        <v>872.8795642628193</v>
       </c>
       <c r="W13" t="n">
-        <v>746.3531195757349</v>
+        <v>661.3454373401908</v>
       </c>
       <c r="X13" t="n">
-        <v>584.069072504912</v>
+        <v>661.3454373401908</v>
       </c>
       <c r="Y13" t="n">
-        <v>584.069072504912</v>
+        <v>510.029651303028</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.395101119023</v>
+        <v>1740.987110988345</v>
       </c>
       <c r="C14" t="n">
-        <v>1393.015874768147</v>
+        <v>1419.607884637469</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131009</v>
+        <v>1105.963031000331</v>
       </c>
       <c r="E14" t="n">
-        <v>748.583771393747</v>
+        <v>775.175781263069</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699187</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411573</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411573</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V14" t="n">
-        <v>2835.645851055488</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="W14" t="n">
-        <v>2536.44309116997</v>
+        <v>2712.036345407502</v>
       </c>
       <c r="X14" t="n">
-        <v>2218.78676124922</v>
+        <v>2394.380015486753</v>
       </c>
       <c r="Y14" t="n">
-        <v>1894.092327316015</v>
+        <v>2069.685581553548</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>551.1661044905967</v>
+        <v>556.6863671542446</v>
       </c>
       <c r="C16" t="n">
-        <v>452.7572617027798</v>
+        <v>556.6863671542446</v>
       </c>
       <c r="D16" t="n">
-        <v>368.9204237514884</v>
+        <v>472.8495292029533</v>
       </c>
       <c r="E16" t="n">
-        <v>285.1578867568847</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F16" t="n">
-        <v>285.1578867568847</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
         <v>207.0995538131559</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581895</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.410653902774</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118227</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138165</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5461,25 +5461,25 @@
         <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814508</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128936</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.16734851703</v>
+        <v>1152.070316531346</v>
       </c>
       <c r="V16" t="n">
-        <v>924.9842784840484</v>
+        <v>1152.070316531346</v>
       </c>
       <c r="W16" t="n">
-        <v>713.4501515614198</v>
+        <v>940.5361896087171</v>
       </c>
       <c r="X16" t="n">
-        <v>551.1661044905967</v>
+        <v>778.2521425378941</v>
       </c>
       <c r="Y16" t="n">
-        <v>551.1661044905967</v>
+        <v>670.0981106993521</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975451</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924219</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
         <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>273.010538436486</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567326</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879418</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296498</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5832,22 +5832,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1286.571845448837</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1286.571845448837</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1803.092128039818</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2208.713496756216</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,22 +5914,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862335</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
         <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
@@ -5981,25 +5981,25 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>174.7633905351325</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133159</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>804.578023344525</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O25" t="n">
-        <v>967.282790386233</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6254,22 +6254,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>186.009121778567</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>813.7807714052482</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1640.815019777314</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6364,7 +6364,7 @@
         <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6385,49 +6385,49 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
         <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6543,16 +6543,16 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>186.4798411672776</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>670.0459270655908</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>813.7807714052482</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="O30" t="n">
         <v>1986.079025206788</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878065</v>
@@ -6613,58 +6613,58 @@
         <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835509</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>255.2650543744572</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>614.2474104019191</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1107.567702120448</v>
       </c>
       <c r="M32" t="n">
-        <v>1660.674197054608</v>
+        <v>1653.568602165029</v>
       </c>
       <c r="N32" t="n">
-        <v>2188.48548069207</v>
+        <v>2293.032006377473</v>
       </c>
       <c r="O32" t="n">
-        <v>2733.798174311469</v>
+        <v>2844.723727844785</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170061</v>
+        <v>3192.911219976307</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>502.4016765227154</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.671367692972</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404863</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245263</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.031657165254</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374203</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>225.4160927170979</v>
       </c>
       <c r="L34" t="n">
-        <v>315.5102292245033</v>
+        <v>501.1958531658805</v>
       </c>
       <c r="M34" t="n">
-        <v>607.0749002898376</v>
+        <v>687.4874315041445</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770937</v>
+        <v>870.6770655353537</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145872</v>
+        <v>1033.381832577062</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1264.910118928623</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.785962625019</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273684</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400713</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045795</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027481</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -7017,19 +7017,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>318.9689542635005</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,43 +7102,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445259</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386234</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162813</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975462</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099325</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803442</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7254,19 +7254,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750523</v>
+        <v>435.0968109750512</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133163</v>
+        <v>621.3883893133152</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>804.5780233445244</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>967.2827903862324</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129455</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404073</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358936</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403517</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040979</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.923332933307</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885599</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634916</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072687</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128482</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918815</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161908</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194235</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330095</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974528</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,46 +7810,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.661451296042</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567345</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879436</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296516</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>250.8690794419224</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>410.1006258169476</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8061,22 +8061,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>330.4974637696128</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837487</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>291.0031325036226</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>281.2999319572004</v>
+        <v>529.8612640735057</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837487</v>
+        <v>611.1777065035426</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886035</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>264.2627326660587</v>
       </c>
       <c r="Q6" t="n">
-        <v>146.2238822806749</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>311.2540453751045</v>
+        <v>417.2510275517577</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8535,10 +8535,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581657</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8547,10 +8547,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,13 +8766,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8781,13 +8781,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,10 +9240,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>117.4945034435369</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9255,7 +9255,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P18" t="n">
         <v>87.08336481931465</v>
@@ -9480,7 +9480,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9489,16 +9489,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>264.4640783312027</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,13 +9714,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.2265410010273</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9729,10 +9729,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9951,28 +9951,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>203.8424305246119</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701423</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10191,19 +10191,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>237.5738335035113</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>457.6168628059747</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>166.3231752016896</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449332</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10665,22 +10665,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>234.783646787533</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10902,22 +10902,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>489.2920096079789</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11139,25 +11139,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>489.2920096079789</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>457.616862805975</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>278.2539578070002</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>464.9323088406971</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>283.1812970473216</v>
       </c>
       <c r="E11" t="n">
-        <v>249.6119301315472</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>16.82313741438811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>82.92973433808251</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>147.5112319245272</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>39.54934357309861</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -23552,7 +23552,7 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>18.21545135252541</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>42.73013665663491</v>
       </c>
     </row>
     <row r="17">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>972090.0428888429</v>
+        <v>972090.0428888432</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>972090.0428888431</v>
+        <v>972090.0428888432</v>
       </c>
     </row>
     <row r="7">
@@ -26314,25 +26314,25 @@
         <v>162298.960284021</v>
       </c>
       <c r="C2" t="n">
-        <v>162298.960284021</v>
+        <v>162298.9602840211</v>
       </c>
       <c r="D2" t="n">
-        <v>162298.960284021</v>
+        <v>162298.9602840211</v>
       </c>
       <c r="E2" t="n">
-        <v>143423.1210819607</v>
+        <v>143423.1210819606</v>
       </c>
       <c r="F2" t="n">
         <v>143423.1210819606</v>
       </c>
       <c r="G2" t="n">
+        <v>162298.9602840214</v>
+      </c>
+      <c r="H2" t="n">
         <v>162298.9602840215</v>
       </c>
-      <c r="H2" t="n">
-        <v>162298.9602840214</v>
-      </c>
       <c r="I2" t="n">
-        <v>162298.9602840214</v>
+        <v>162298.9602840215</v>
       </c>
       <c r="J2" t="n">
         <v>162298.9602840213</v>
@@ -26344,10 +26344,10 @@
         <v>162298.9602840209</v>
       </c>
       <c r="M2" t="n">
+        <v>162298.9602840215</v>
+      </c>
+      <c r="N2" t="n">
         <v>162298.9602840214</v>
-      </c>
-      <c r="N2" t="n">
-        <v>162298.9602840215</v>
       </c>
       <c r="O2" t="n">
         <v>162298.9602840215</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.325536682</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728562</v>
+        <v>62456.24177539676</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962296</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277114</v>
+        <v>27767.69404277117</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243105</v>
+        <v>173918.2775005335</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243105</v>
+        <v>173918.2775005335</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373745</v>
+        <v>74084.49552373748</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373748</v>
+        <v>74084.49552373747</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
@@ -26436,7 +26436,7 @@
         <v>121843.4120153197</v>
       </c>
       <c r="I4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="J4" t="n">
         <v>122593.9044797028</v>
@@ -26445,19 +26445,19 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
         <v>121843.4120153196</v>
       </c>
       <c r="O4" t="n">
+        <v>121843.4120153196</v>
+      </c>
+      <c r="P4" t="n">
         <v>121843.4120153197</v>
-      </c>
-      <c r="P4" t="n">
-        <v>121843.4120153196</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26491,25 +26491,25 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
+        <v>58169.76931551967</v>
+      </c>
+      <c r="O5" t="n">
         <v>58169.76931551966</v>
       </c>
-      <c r="O5" t="n">
-        <v>58169.76931551968</v>
-      </c>
       <c r="P5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-253796.392372159</v>
+        <v>-250648.0417853849</v>
       </c>
       <c r="C6" t="n">
-        <v>-71591.44408030328</v>
+        <v>-76789.38475132965</v>
       </c>
       <c r="D6" t="n">
-        <v>-76454.7263741784</v>
+        <v>-84191.01559756984</v>
       </c>
       <c r="E6" t="n">
-        <v>-95969.95561566182</v>
+        <v>-96179.68716235155</v>
       </c>
       <c r="F6" t="n">
-        <v>16152.60585838259</v>
+        <v>15942.87431169311</v>
       </c>
       <c r="G6" t="n">
-        <v>-65139.54658349989</v>
+        <v>-65139.54658349988</v>
       </c>
       <c r="H6" t="n">
+        <v>-17714.22104681788</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-17714.22104681775</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-224239.8534895304</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-23953.98944960093</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-83185.41559469476</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-60966.74551762905</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-17714.22104681792</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-45481.91508958903</v>
+      </c>
+      <c r="P6" t="n">
         <v>-17714.22104681784</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-17714.22104681794</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-230756.1386441035</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-23953.98944960097</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-79136.57838422265</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-59915.05050644085</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-17714.22104681791</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-45481.91508958905</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-17714.22104681777</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
         <v>71.07831239473194</v>
@@ -26707,25 +26707,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
+        <v>130.3599693155845</v>
+      </c>
+      <c r="O2" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O2" t="n">
-        <v>130.3599693155843</v>
-      </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293139</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660703</v>
+        <v>78.07030221924595</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155133</v>
+        <v>17.58004954287448</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773711</v>
+        <v>659.362224997165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042792</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27385,16 +27385,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>33.79042772321912</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>234.76069305575</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>13.09687288241011</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>70.73779993149637</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>129.1938401429233</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27588,16 +27588,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>114.4587865171114</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.3036005050282</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>288.1801116487667</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.382948420155415</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>66.31852263746278</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>29.16744895743835</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27786,7 +27786,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>63.3509716203327</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27834,10 +27834,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>99.59429682291824</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>358.0509000279202</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>30.57035073573053</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28065,13 +28065,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>148.9079157857322</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28746,20 +28746,20 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5.636002634528154</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29068,7 +29068,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,10 +29226,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>28.012500264853</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>30.2722376590126</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901277</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
@@ -29545,16 +29545,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="O29" t="n">
-        <v>30.27223765901266</v>
-      </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>43.49509683160002</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>48.65992738833052</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>76.79385455031408</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>94.97643844045137</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30174,10 +30174,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N37" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155832</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="39">
@@ -30378,37 +30378,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J40" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>28.01250026485259</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30457,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,37 +30615,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30654,37 +30654,37 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.71049010668912</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30882,13 +30882,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.636002634530115</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -32233,7 +32233,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>133.1892414995763</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344369</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>259.7991785760224</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>240.4371169126945</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344369</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>200.0149793477086</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>128.0517622267088</v>
+        <v>376.613094343014</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344369</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>177.179367846744</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.23572912476093</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>168.1956421958672</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088538</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35267,10 +35267,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35501,13 +35501,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>35.0500461102036</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35975,7 +35975,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873201</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36200,7 +36200,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36209,16 +36209,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.4759251752887</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>294.0834769302979</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>249.3850182462355</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>113.782083667694</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36449,10 +36449,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,10 +36522,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>316.4712935610694</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>213.0525346398118</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835607</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272236</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656005</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>113.7820836676936</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36841,16 +36841,16 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36911,19 +36911,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>145.1867114541993</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>372.244749951808</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>189.605978557689</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37075,19 +37075,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>600.175988039422</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176211</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>557.2643651184962</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>73.9360531523777</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>159.4555122371241</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>280.0164728154102</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.8669559106681</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>145.1867114541996</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
-        <v>313.3380164832371</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.69798984183555</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>396.904887558667</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>294.0834769302967</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>7.697989841835664</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.1108817260908</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
         <v>362.6084404317796</v>
@@ -37859,25 +37859,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>396.9048875586669</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37950,13 +37950,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.1672541168416</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>188.193610950082</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,13 +38178,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>171.4214974565501</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683762</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832366</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
